--- a/data/georgia_census/adjara/qobuleti/education_graduates.xlsx
+++ b/data/georgia_census/adjara/qobuleti/education_graduates.xlsx
@@ -1812,13 +1812,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{03E61FD8-F9B9-4884-8F82-D65EAC204C83}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C1FE6095-6F59-4CFC-AC2F-DAC28B43A6C4}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CE162554-3140-4351-95C9-CB06F6F50D10}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{79B4FE20-592C-4F38-9519-20FD9211F3A3}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06EE93FB-EF3C-4102-98EA-2C390B0334F1}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C355FFA1-AB89-4391-A114-B23666A5B356}"/>
 </file>